--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanchi\eclipse-workspace\7rmartProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanchi\git\Automation_Project\7rmartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF48237-D9EE-40AB-95A0-5633C0BC06A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED3B5E-F2A3-4890-802B-5EB2BE531CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="CategoryPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminUser" sheetId="7" r:id="rId4"/>
+    <sheet name="Sub_CategoryPage" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -40,6 +44,54 @@
   </si>
   <si>
     <t>passwor</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>CategorySearch</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>50% discount is annouced for all the Product-New Year Special</t>
+  </si>
+  <si>
+    <t>Revathy</t>
+  </si>
+  <si>
+    <t>revathy</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>SearchUsername</t>
+  </si>
+  <si>
+    <t>NewUsername</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub_category</t>
+  </si>
+  <si>
+    <t>teddy</t>
   </si>
 </sst>
 </file>
@@ -359,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,4 +460,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E872CF63-4C5E-4381-88A2-F052194D5567}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B0D03-BB0B-4904-AD16-F82044AB2ED5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE12E1-3D48-469B-8044-5A824A37311B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC41A00-B411-4383-92B2-7B4E00CC4184}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanchi\git\Automation_Project\7rmartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED3B5E-F2A3-4890-802B-5EB2BE531CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3582ED42-0C60-4EFB-B571-AA95EDB176E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -61,9 +61,6 @@
     <t>News</t>
   </si>
   <si>
-    <t>50% discount is annouced for all the Product-New Year Special</t>
-  </si>
-  <si>
     <t>Revathy</t>
   </si>
   <si>
@@ -92,16 +89,39 @@
   </si>
   <si>
     <t>teddy</t>
+  </si>
+  <si>
+    <t>iphone1213</t>
+  </si>
+  <si>
+    <t>50% discount is announced for all the Product-New Year Special</t>
+  </si>
+  <si>
+    <t>Revathy01</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/user/index?un=Revathy&amp;ut=admin&amp;Search=sr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,13 +144,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,7 +525,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +540,7 @@
     </row>
     <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -529,34 +552,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE12E1-3D48-469B-8044-5A824A37311B}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="72.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -564,31 +587,40 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{2BAA1123-7BA6-499F-8922-405A97A42846}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC41A00-B411-4383-92B2-7B4E00CC4184}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,17 +631,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>

--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanchi\git\Automation_Project\7rmartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3582ED42-0C60-4EFB-B571-AA95EDB176E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F864247-E218-4743-8DDF-C98F258F2330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="CategoryPage" sheetId="2" r:id="rId2"/>
-    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
-    <sheet name="AdminUser" sheetId="7" r:id="rId4"/>
-    <sheet name="Sub_CategoryPage" sheetId="8" r:id="rId5"/>
+    <sheet name="HomePage" sheetId="9" r:id="rId3"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId4"/>
+    <sheet name="AdminUser" sheetId="7" r:id="rId5"/>
+    <sheet name="Sub_CategoryPage" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -97,20 +98,29 @@
     <t>50% discount is announced for all the Product-New Year Special</t>
   </si>
   <si>
-    <t>Revathy01</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>https://groceryapp.uniqassosiates.com/admin/user/index?un=Revathy&amp;ut=admin&amp;Search=sr</t>
+  </si>
+  <si>
+    <t>Revathy07</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-category</t>
+  </si>
+  <si>
+    <t>PageTiTle</t>
+  </si>
+  <si>
+    <t>Login | 7rmart supermarket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +135,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,9 +164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,32 +504,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E872CF63-4C5E-4381-88A2-F052194D5567}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3976BEED-015F-45B2-8621-BB514B7DD3B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266D86FD-852F-4DED-96E1-8893E6391EDC}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0B0D03-BB0B-4904-AD16-F82044AB2ED5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -548,12 +604,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE12E1-3D48-469B-8044-5A824A37311B}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +632,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -593,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -604,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -615,12 +671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC41A00-B411-4383-92B2-7B4E00CC4184}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/7rmartProject/src/test/resources/TestData.xlsx
+++ b/7rmartProject/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kanchi\git\Automation_Project\7rmartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F864247-E218-4743-8DDF-C98F258F2330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A06C1A9-6337-4BE8-9DCF-781C073529BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -92,18 +92,12 @@
     <t>teddy</t>
   </si>
   <si>
-    <t>iphone1213</t>
-  </si>
-  <si>
     <t>50% discount is announced for all the Product-New Year Special</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://groceryapp.uniqassosiates.com/admin/user/index?un=Revathy&amp;ut=admin&amp;Search=sr</t>
-  </si>
-  <si>
     <t>Revathy07</t>
   </si>
   <si>
@@ -114,6 +108,15 @@
   </si>
   <si>
     <t>Login | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>iphone124</t>
+  </si>
+  <si>
+    <t>passw</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-admin</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -536,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -563,12 +566,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +599,7 @@
     </row>
     <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE12E1-3D48-469B-8044-5A824A37311B}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +635,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -649,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -660,13 +663,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{2BAA1123-7BA6-499F-8922-405A97A42846}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC41A00-B411-4383-92B2-7B4E00CC4184}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
